--- a/GanttDefinitiva.xlsx
+++ b/GanttDefinitiva.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Desktop\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AB1F44-8B0F-4076-8E73-D9C25C56F018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829382FF-B55F-47B4-83C5-720B39832D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6A224AE-AC13-496B-91E4-D2B4065FEB1A}"/>
   </bookViews>
@@ -636,13 +636,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -650,16 +643,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -683,6 +666,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9E4CB0-38A7-4CFB-8381-59B2CDD8B22D}">
   <dimension ref="C3:AX56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,112 +1017,112 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="42" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="31" t="s">
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="31" t="s">
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31" t="s">
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31" t="s">
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31" t="s">
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31" t="s">
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31" t="s">
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
     </row>
     <row r="5" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C5" s="34"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="11">
         <v>1</v>
       </c>
@@ -1245,8 +1245,8 @@
       </c>
     </row>
     <row r="6" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C6" s="34"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1309,8 +1309,8 @@
       <c r="AX6" s="29"/>
     </row>
     <row r="7" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="13" t="s">
         <v>52</v>
       </c>
@@ -1371,8 +1371,8 @@
       <c r="AX7" s="29"/>
     </row>
     <row r="8" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="13" t="s">
         <v>53</v>
       </c>
@@ -1433,8 +1433,8 @@
       <c r="AX8" s="29"/>
     </row>
     <row r="9" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="13" t="s">
         <v>73</v>
       </c>
@@ -1495,8 +1495,8 @@
       <c r="AX9" s="29"/>
     </row>
     <row r="10" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="13" t="s">
         <v>69</v>
       </c>
@@ -1557,8 +1557,8 @@
       <c r="AX10" s="29"/>
     </row>
     <row r="11" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="13" t="s">
         <v>74</v>
       </c>
@@ -1619,8 +1619,8 @@
       <c r="AX11" s="29"/>
     </row>
     <row r="12" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="13" t="s">
         <v>54</v>
       </c>
@@ -1681,8 +1681,8 @@
       <c r="AX12" s="29"/>
     </row>
     <row r="13" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
@@ -1743,8 +1743,8 @@
       <c r="AX13" s="29"/>
     </row>
     <row r="14" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="13" t="s">
         <v>55</v>
       </c>
@@ -1805,8 +1805,8 @@
       <c r="AX14" s="29"/>
     </row>
     <row r="15" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="13" t="s">
         <v>56</v>
       </c>
@@ -1867,8 +1867,8 @@
       <c r="AX15" s="29"/>
     </row>
     <row r="16" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="13" t="s">
         <v>57</v>
       </c>
@@ -1929,8 +1929,8 @@
       <c r="AX16" s="29"/>
     </row>
     <row r="17" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="13" t="s">
         <v>70</v>
       </c>
@@ -1991,8 +1991,8 @@
       <c r="AX17" s="29"/>
     </row>
     <row r="18" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="13" t="s">
         <v>19</v>
       </c>
@@ -2053,8 +2053,8 @@
       <c r="AX18" s="29"/>
     </row>
     <row r="19" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="13" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2115,8 @@
       <c r="AX19" s="29"/>
     </row>
     <row r="20" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="13" t="s">
         <v>21</v>
       </c>
@@ -2177,8 +2177,8 @@
       <c r="AX20" s="29"/>
     </row>
     <row r="21" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="14" t="s">
@@ -2241,8 +2241,8 @@
       <c r="AX21" s="29"/>
     </row>
     <row r="22" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="14" t="s">
         <v>59</v>
       </c>
@@ -2303,8 +2303,8 @@
       <c r="AX22" s="29"/>
     </row>
     <row r="23" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="14" t="s">
         <v>66</v>
       </c>
@@ -2365,8 +2365,8 @@
       <c r="AX23" s="29"/>
     </row>
     <row r="24" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="14" t="s">
         <v>67</v>
       </c>
@@ -2427,8 +2427,8 @@
       <c r="AX24" s="29"/>
     </row>
     <row r="25" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="14" t="s">
         <v>68</v>
       </c>
@@ -2489,8 +2489,8 @@
       <c r="AX25" s="29"/>
     </row>
     <row r="26" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="14" t="s">
         <v>63</v>
       </c>
@@ -2551,8 +2551,8 @@
       <c r="AX26" s="29"/>
     </row>
     <row r="27" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="14" t="s">
         <v>64</v>
       </c>
@@ -2613,8 +2613,8 @@
       <c r="AX27" s="29"/>
     </row>
     <row r="28" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="14" t="s">
         <v>65</v>
       </c>
@@ -2675,8 +2675,8 @@
       <c r="AX28" s="29"/>
     </row>
     <row r="29" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="14" t="s">
         <v>60</v>
       </c>
@@ -2737,8 +2737,8 @@
       <c r="AX29" s="29"/>
     </row>
     <row r="30" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="14" t="s">
         <v>61</v>
       </c>
@@ -2799,8 +2799,8 @@
       <c r="AX30" s="29"/>
     </row>
     <row r="31" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="14" t="s">
         <v>62</v>
       </c>
@@ -2861,8 +2861,8 @@
       <c r="AX31" s="29"/>
     </row>
     <row r="32" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="14" t="s">
         <v>41</v>
       </c>
@@ -2923,8 +2923,8 @@
       <c r="AX32" s="29"/>
     </row>
     <row r="33" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C33" s="34"/>
-      <c r="D33" s="41" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="14" t="s">
@@ -2987,8 +2987,8 @@
       <c r="AX33" s="29"/>
     </row>
     <row r="34" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C34" s="34"/>
-      <c r="D34" s="41"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="14" t="s">
         <v>39</v>
       </c>
@@ -3049,8 +3049,8 @@
       <c r="AX34" s="29"/>
     </row>
     <row r="35" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C35" s="34"/>
-      <c r="D35" s="41"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="14" t="s">
         <v>38</v>
       </c>
@@ -3111,8 +3111,8 @@
       <c r="AX35" s="29"/>
     </row>
     <row r="36" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C36" s="34"/>
-      <c r="D36" s="41"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="14" t="s">
         <v>37</v>
       </c>
@@ -3173,8 +3173,8 @@
       <c r="AX36" s="29"/>
     </row>
     <row r="37" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C37" s="34"/>
-      <c r="D37" s="41"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="14" t="s">
         <v>36</v>
       </c>
@@ -3235,8 +3235,8 @@
       <c r="AX37" s="29"/>
     </row>
     <row r="38" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C38" s="34"/>
-      <c r="D38" s="41"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="14" t="s">
         <v>35</v>
       </c>
@@ -3297,8 +3297,8 @@
       <c r="AX38" s="29"/>
     </row>
     <row r="39" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C39" s="34"/>
-      <c r="D39" s="41"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="15" t="s">
         <v>42</v>
       </c>
@@ -3359,8 +3359,8 @@
       <c r="AX39" s="29"/>
     </row>
     <row r="40" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C40" s="34"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="31"/>
+      <c r="D40" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="15" t="s">
@@ -3423,8 +3423,8 @@
       <c r="AX40" s="29"/>
     </row>
     <row r="41" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C41" s="34"/>
-      <c r="D41" s="46"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="15" t="s">
         <v>33</v>
       </c>
@@ -3485,8 +3485,8 @@
       <c r="AX41" s="29"/>
     </row>
     <row r="42" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C42" s="34"/>
-      <c r="D42" s="46"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="15" t="s">
         <v>43</v>
       </c>
@@ -3547,8 +3547,8 @@
       <c r="AX42" s="29"/>
     </row>
     <row r="43" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C43" s="34"/>
-      <c r="D43" s="46"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="15" t="s">
         <v>32</v>
       </c>
@@ -3609,8 +3609,8 @@
       <c r="AX43" s="29"/>
     </row>
     <row r="44" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C44" s="34"/>
-      <c r="D44" s="46"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="15" t="s">
         <v>44</v>
       </c>
@@ -3671,8 +3671,8 @@
       <c r="AX44" s="29"/>
     </row>
     <row r="45" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="34"/>
-      <c r="D45" s="45" t="s">
+      <c r="C45" s="31"/>
+      <c r="D45" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -3735,8 +3735,8 @@
       <c r="AX45" s="29"/>
     </row>
     <row r="46" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C46" s="34"/>
-      <c r="D46" s="45"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="15" t="s">
         <v>45</v>
       </c>
@@ -3797,8 +3797,8 @@
       <c r="AX46" s="29"/>
     </row>
     <row r="47" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C47" s="34"/>
-      <c r="D47" s="45"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="15" t="s">
         <v>30</v>
       </c>
@@ -3859,8 +3859,8 @@
       <c r="AX47" s="29"/>
     </row>
     <row r="48" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C48" s="34"/>
-      <c r="D48" s="45"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="15" t="s">
         <v>46</v>
       </c>
@@ -3921,8 +3921,8 @@
       <c r="AX48" s="29"/>
     </row>
     <row r="49" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C49" s="34"/>
-      <c r="D49" s="45"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="15" t="s">
         <v>29</v>
       </c>
@@ -3983,8 +3983,8 @@
       <c r="AX49" s="29"/>
     </row>
     <row r="50" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C50" s="34"/>
-      <c r="D50" s="45"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="15" t="s">
         <v>47</v>
       </c>
@@ -4045,8 +4045,8 @@
       <c r="AX50" s="29"/>
     </row>
     <row r="51" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C51" s="34"/>
-      <c r="D51" s="45"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="15" t="s">
         <v>28</v>
       </c>
@@ -4107,8 +4107,8 @@
       <c r="AX51" s="29"/>
     </row>
     <row r="52" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C52" s="34"/>
-      <c r="D52" s="45"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="15" t="s">
         <v>48</v>
       </c>
@@ -4169,8 +4169,8 @@
       <c r="AX52" s="29"/>
     </row>
     <row r="53" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
-      <c r="D53" s="45"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="15" t="s">
         <v>27</v>
       </c>
@@ -4231,8 +4231,8 @@
       <c r="AX53" s="29"/>
     </row>
     <row r="54" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C54" s="34"/>
-      <c r="D54" s="45"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="15" t="s">
         <v>71</v>
       </c>
@@ -4293,8 +4293,8 @@
       <c r="AX54" s="29"/>
     </row>
     <row r="55" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
-      <c r="D55" s="45"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="23" t="s">
         <v>72</v>
       </c>
@@ -4355,8 +4355,8 @@
       <c r="AX55" s="29"/>
     </row>
     <row r="56" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="34"/>
-      <c r="D56" s="45"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="15" t="s">
         <v>49</v>
       </c>
@@ -4418,15 +4418,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C4:C56"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="D21:D32"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="AQ4:AT4"/>
     <mergeCell ref="AU4:AX4"/>
     <mergeCell ref="J4:J5"/>
@@ -4443,6 +4434,15 @@
     <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C56"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="D21:D32"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
